--- a/biology/Botanique/Olea_cordatula/Olea_cordatula.xlsx
+++ b/biology/Botanique/Olea_cordatula/Olea_cordatula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Olea cordatula H.L. Li est un végétal appartenant au genre Olea. C'est un arbre qui peut atteindre 10 m de haut et qui pousse au Vietnam. Sa description figure dans la révision du genre Olea par P.S. Green (2012).
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tetrapilus cordatus (H.L. Li) (1957),
 Liniocera mo Gagnep. (1948).</t>
@@ -544,12 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-C'est un arbre qui peut atteindre 10 m de haut. Les jeunes branches sont veloutées. Les feuilles sont subcoriaces, les pétioles mesurent de 3 à 6 mm de long, veloutés. Le limbe des feuilles est lancéolé-elliptique à oblancéolé, de 11 à 25 cm de long par (2,5-)3,5 à 9 cm de large, velouté en dessous, glabre au-dessus, la base arrondie, subauriculée, l'apex pointu, parfois légèrement acuminé, les marges sont dentelées ou dentées, spécialement dans la moitiè supérieure. Les nervures primaires  sont au nombre de 12 à 14 de part et d'autre de la nervure principale, saillantes sur le dessus, enfoncées sur le dessous la nervuration est sombre.
-Appareil reproducteur
-Les inflorescences sont axillaires, étroitement en cymes paniculées longues de 2 à 6 cm, veloutées. Les fleurs sont abondantes, avec des bractées de 2 à 3 mm de long. Le calice est velouté, le tube mesurant de 0,25 à 0,5 mm de long. La corolle est blanchâtre ou jaunâtre, charnue, le tube mesure 0,25 mm de long, les lobes sont triangulaires de 0,75 mm de long. La corolle est verdâtre, plus ou moins allongée-triangulaire, non divisée, formant un tube de 1 mm de long sur 0,5 mm de large, les lobes ayant 1 mm de long sur 0,5 mm de large. Les anthères sont largement elliptiques, de 0,5 mm de long, le filet mesurant 0,2 mm de long, adhérent et non-développé en un appendice. L'ovaire est en forme de bouteille mesurant 1 mm de long, le style est imperceptible, avec un stigmate de 0,3 mm de long. Le fruit n'est pas connu.
-Répartition géographique
-On trouve cette espèce au Vietnam.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbre qui peut atteindre 10 m de haut. Les jeunes branches sont veloutées. Les feuilles sont subcoriaces, les pétioles mesurent de 3 à 6 mm de long, veloutés. Le limbe des feuilles est lancéolé-elliptique à oblancéolé, de 11 à 25 cm de long par (2,5-)3,5 à 9 cm de large, velouté en dessous, glabre au-dessus, la base arrondie, subauriculée, l'apex pointu, parfois légèrement acuminé, les marges sont dentelées ou dentées, spécialement dans la moitiè supérieure. Les nervures primaires  sont au nombre de 12 à 14 de part et d'autre de la nervure principale, saillantes sur le dessus, enfoncées sur le dessous la nervuration est sombre.
 </t>
         </is>
       </c>
@@ -575,10 +590,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Utilisations</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Description botanique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les inflorescences sont axillaires, étroitement en cymes paniculées longues de 2 à 6 cm, veloutées. Les fleurs sont abondantes, avec des bractées de 2 à 3 mm de long. Le calice est velouté, le tube mesurant de 0,25 à 0,5 mm de long. La corolle est blanchâtre ou jaunâtre, charnue, le tube mesure 0,25 mm de long, les lobes sont triangulaires de 0,75 mm de long. La corolle est verdâtre, plus ou moins allongée-triangulaire, non divisée, formant un tube de 1 mm de long sur 0,5 mm de large, les lobes ayant 1 mm de long sur 0,5 mm de large. Les anthères sont largement elliptiques, de 0,5 mm de long, le filet mesurant 0,2 mm de long, adhérent et non-développé en un appendice. L'ovaire est en forme de bouteille mesurant 1 mm de long, le style est imperceptible, avec un stigmate de 0,3 mm de long. Le fruit n'est pas connu.
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -601,10 +627,77 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description botanique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Répartition géographique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouve cette espèce au Vietnam.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Olea_cordatula</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_cordatula</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Olea_cordatula</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_cordatula</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
